--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">整数</t>
   </si>
@@ -37,6 +37,12 @@
     <t xml:space="preserve">字典</t>
   </si>
   <si>
+    <t xml:space="preserve">枚举与整形的字典</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枚举数组</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
@@ -52,13 +58,19 @@
     <t xml:space="preserve">MapValue</t>
   </si>
   <si>
+    <t xml:space="preserve">MapEnumToInt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnumArray</t>
+  </si>
+  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
-    <t xml:space="preserve">Enum&lt;ColorT&gt;</t>
+    <t xml:space="preserve">enum&lt;ColorT&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Array&lt;int&gt;</t>
@@ -67,6 +79,12 @@
     <t xml:space="preserve">Map&lt;int, int&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">map&lt;enum&lt;ColorT&gt;,int&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array&lt;enum&lt;ColorT&gt;&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">示例字符k串1</t>
   </si>
   <si>
@@ -79,6 +97,41 @@
     <t xml:space="preserve">{"1":1,"2":2,"3":3}</t>
   </si>
   <si>
+    <t xml:space="preserve">{"Red":1,"Green":2,"Blue":3}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"Red"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">字符串2</t>
   </si>
   <si>
@@ -101,6 +154,41 @@
   </si>
   <si>
     <t xml:space="preserve">{"3":9999999}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Red":2222}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"Red","Blue"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -110,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -149,6 +237,20 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +295,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,6 +309,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,22 +407,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="6" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="8" style="1" width="9.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="1017" style="2" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="2" width="11.64"/>
   </cols>
@@ -333,39 +445,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,33 +503,45 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,16 +549,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DataTableSample" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="配置" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="#配置说明" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,14 +21,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+  <si>
+    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter</t>
+  </si>
   <si>
     <t xml:space="preserve">整数</t>
   </si>
   <si>
+    <t xml:space="preserve">小整数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大整数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无符号大整数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浮点数</t>
+  </si>
+  <si>
     <t xml:space="preserve">字符串</t>
   </si>
   <si>
+    <t xml:space="preserve">布尔</t>
+  </si>
+  <si>
     <t xml:space="preserve">枚举</t>
   </si>
   <si>
@@ -46,9 +65,24 @@
     <t xml:space="preserve">Id</t>
   </si>
   <si>
+    <t xml:space="preserve">Int16Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int64Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UInt64Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FloatValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">BoolValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Color</t>
   </si>
   <si>
@@ -67,7 +101,22 @@
     <t xml:space="preserve">int</t>
   </si>
   <si>
+    <t xml:space="preserve">short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ulong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool</t>
   </si>
   <si>
     <t xml:space="preserve">enum&lt;ColorT&gt;</t>
@@ -195,8 +244,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -253,15 +303,21 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -269,6 +325,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -295,28 +366,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,6 +412,29 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAFD095"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF111111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -345,7 +451,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -377,7 +483,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -393,184 +499,301 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C1048500" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H1048501" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="8">
     <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Color"/>
+    <tableColumn id="2" name="Int16Value"/>
+    <tableColumn id="3" name="Int64Value"/>
+    <tableColumn id="4" name="UInt64Value"/>
+    <tableColumn id="5" name="FloatValue"/>
+    <tableColumn id="6" name="Name"/>
+    <tableColumn id="7" name="BoolValue"/>
+    <tableColumn id="8" name="Color"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="8" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="1017" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1018" style="2" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="13" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="1022" style="2" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1029" min="1023" style="2" width="11.64"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
+      <c r="C5" s="1" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4200000000</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>36</v>
+      <c r="B7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-5000000000</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>9999.99</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -579,4 +802,27 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="配置" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="#配置说明" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="#配置说明" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="配置" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -518,9 +518,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -802,27 +825,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#配置说明" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,34 +26,34 @@
     <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter</t>
   </si>
   <si>
-    <t xml:space="preserve">整数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小整数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大整数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无符号大整数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浮点数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字符串</t>
-  </si>
-  <si>
-    <t xml:space="preserve">布尔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枚举</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字典</t>
+    <t xml:space="preserve">整数@CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小整数@CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大整数@CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无符号大整数@C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浮点数@A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字符串@CSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">布尔@CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">枚举@CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数组@ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">字典@A</t>
   </si>
   <si>
     <t xml:space="preserve">枚举与整形的字典</t>
@@ -412,29 +412,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAFD095"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF111111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -498,21 +475,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H1048501" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="8">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Int16Value"/>
-    <tableColumn id="3" name="Int64Value"/>
-    <tableColumn id="4" name="UInt64Value"/>
-    <tableColumn id="5" name="FloatValue"/>
-    <tableColumn id="6" name="Name"/>
-    <tableColumn id="7" name="BoolValue"/>
-    <tableColumn id="8" name="Color"/>
-  </tableColumns>
-</table>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -520,7 +482,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -543,16 +505,19 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.7"/>
@@ -579,7 +544,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -785,7 +750,7 @@
         <v>1111111111</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>9999.99</v>
+        <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>47</v>
@@ -821,8 +786,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
-    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter</t>
+    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Id&amp;Int16Value</t>
   </si>
   <si>
     <t xml:space="preserve">整数@CS</t>
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -508,7 +508,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,7 +525,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="13" style="1" width="9.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="1022" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1029" min="1023" style="2" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="2" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,7 +780,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -508,7 +508,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -780,7 +780,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
-    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Id&amp;Int16Value</t>
+    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue</t>
   </si>
   <si>
     <t xml:space="preserve">整数@CS</t>
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -499,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -508,7 +508,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -780,7 +780,7 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue</t>
   </si>
@@ -53,6 +53,12 @@
     <t xml:space="preserve">数组@ABC</t>
   </si>
   <si>
+    <t xml:space="preserve">二维数组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三维数组</t>
+  </si>
+  <si>
     <t xml:space="preserve">字典@A</t>
   </si>
   <si>
@@ -89,6 +95,12 @@
     <t xml:space="preserve">ArrayValue</t>
   </si>
   <si>
+    <t xml:space="preserve">Array2DValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array3DValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">MapValue</t>
   </si>
   <si>
@@ -125,6 +137,12 @@
     <t xml:space="preserve">Array&lt;int&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Array&lt;Array&lt;int&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array&lt;Array&lt;Array&lt;int&gt;&gt;&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Map&lt;int, int&gt;</t>
   </si>
   <si>
@@ -141,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve">[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[1,2]]</t>
   </si>
   <si>
     <t xml:space="preserve">{"1":1,"2":2,"3":3}</t>
@@ -190,6 +211,9 @@
     <t xml:space="preserve">[2]</t>
   </si>
   <si>
+    <t xml:space="preserve">[[]]</t>
+  </si>
+  <si>
     <t xml:space="preserve">{}</t>
   </si>
   <si>
@@ -200,6 +224,12 @@
   </si>
   <si>
     <t xml:space="preserve">[1,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[1,3,2],[2,3,1]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[[1,2,3]]]</t>
   </si>
   <si>
     <t xml:space="preserve">{"3":9999999}</t>
@@ -476,7 +506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -499,16 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -520,12 +550,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="13" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="1022" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="2" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="15" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1026" min="1025" style="2" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,6 +575,8 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -581,81 +615,99 @@
       <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,26 +727,32 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G5" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,26 +772,32 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,34 +817,40 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G7" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -131,7 +131,7 @@
     <t xml:space="preserve">bool</t>
   </si>
   <si>
-    <t xml:space="preserve">enum&lt;ColorT&gt;</t>
+    <t xml:space="preserve">enum&lt;ConsoleApp.ColorT&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Array&lt;int&gt;</t>
@@ -538,7 +538,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue</t>
   </si>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">枚举数组</t>
   </si>
   <si>
+    <t xml:space="preserve">自定义类</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t xml:space="preserve">EnumArray</t>
   </si>
   <si>
+    <t xml:space="preserve">CustomJSON</t>
+  </si>
+  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
@@ -150,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">array&lt;enum&lt;ColorT&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON&lt;SampleParent&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">示例字符k串1</t>
@@ -202,6 +211,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">{"Id":"abc"}</t>
+  </si>
+  <si>
     <t xml:space="preserve">字符串2</t>
   </si>
   <si>
@@ -215,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Id":"cny","IntValue1":1}</t>
   </si>
   <si>
     <t xml:space="preserve">字符串3</t>
@@ -268,6 +283,9 @@
       </rPr>
       <t xml:space="preserve">]</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Id":"rmb","IntValue2":2}</t>
   </si>
 </sst>
 </file>
@@ -396,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,6 +432,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,12 +555,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,9 +577,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="15" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1026" min="1025" style="2" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1025" style="2" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1027" min="1026" style="2" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,6 +600,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -621,93 +645,102 @@
       <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,32 +760,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="L5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="N5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,32 +808,35 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,32 +856,35 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
-    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue</t>
+    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue</t>
   </si>
   <si>
     <t xml:space="preserve">整数@CS</t>
@@ -557,10 +557,10 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
-    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue</t>
+    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
   </si>
   <si>
     <t xml:space="preserve">整数@CS</t>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -53,7 +53,9 @@
     <t xml:space="preserve">数组@ABC</t>
   </si>
   <si>
-    <t xml:space="preserve">二维数组</t>
+    <t xml:space="preserve">二维数组
+使用标准JSON格式串
+备注1字符串</t>
   </si>
   <si>
     <t xml:space="preserve">三维数组</t>
@@ -414,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -433,6 +435,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -560,7 +566,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,7 +608,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -630,7 +636,7 @@
       <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -739,7 +745,7 @@
       <c r="N4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -762,7 +768,7 @@
       <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -778,10 +784,10 @@
       <c r="K5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -810,7 +816,7 @@
       <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -832,10 +838,10 @@
       <c r="M6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -858,7 +864,7 @@
       <c r="F7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -874,16 +880,16 @@
       <c r="K7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="10" t="s">
         <v>68</v>
       </c>
     </row>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#配置说明" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="配置" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="分表配置_1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="分表配置_2" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="71">
   <si>
     <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
   </si>
@@ -288,6 +290,70 @@
   </si>
   <si>
     <t xml:space="preserve">{"Id":"rmb","IntValue2":2}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DataTabeGenerator,Title=示例表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,Child=x001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,Class=DataTableSplitSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DataTabeGenerator,Title=示例表,Child=x002,Class=DataTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -353,7 +419,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,7 +429,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -416,7 +488,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,7 +513,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,7 +582,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -563,10 +639,10 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -656,96 +732,96 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -768,7 +844,7 @@
       <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -784,10 +860,10 @@
       <c r="K5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="10" t="s">
         <v>51</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -816,7 +892,7 @@
       <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="8" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -838,10 +914,10 @@
       <c r="M6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -864,7 +940,7 @@
       <c r="F7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -880,16 +956,718 @@
       <c r="K7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1025" style="2" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1027" min="1026" style="2" width="11.64"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4200000000</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-5000000000</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>9999.9999</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1025" style="2" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1027" min="1026" style="2" width="11.64"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4200000000</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-5000000000</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>9999.9999</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>68</v>
       </c>
     </row>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#配置说明" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="77">
   <si>
     <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
   </si>
@@ -72,6 +72,9 @@
     <t xml:space="preserve">枚举数组</t>
   </si>
   <si>
+    <t xml:space="preserve">JSON类</t>
+  </si>
+  <si>
     <t xml:space="preserve">自定义类</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
     <t xml:space="preserve">CustomJSON</t>
   </si>
   <si>
+    <t xml:space="preserve">CustomFieldType</t>
+  </si>
+  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">JSON&lt;SampleParent&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom&lt;CustomSample&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">示例字符k串1</t>
@@ -215,7 +224,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{"Id":"abc"}</t>
+    <t xml:space="preserve">abc</t>
   </si>
   <si>
     <t xml:space="preserve">字符串2</t>
@@ -233,7 +242,7 @@
     <t xml:space="preserve">{}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"Id":"cny","IntValue1":1}</t>
+    <t xml:space="preserve">xyz</t>
   </si>
   <si>
     <t xml:space="preserve">字符串3</t>
@@ -289,7 +298,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{"Id":"rmb","IntValue2":2}</t>
+    <t xml:space="preserve">aaa</t>
   </si>
   <si>
     <r>
@@ -322,6 +331,15 @@
       </rPr>
       <t xml:space="preserve">,Class=DataTableSplitSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Id":"abc"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Id":"cny","IntValue1":1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Id":"rmb","IntValue2":2}</t>
   </si>
   <si>
     <r>
@@ -637,12 +655,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -660,9 +678,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1025" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1027" min="1026" style="2" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="26.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1026" min="1026" style="2" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1028" min="1027" style="2" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,6 +702,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -730,99 +750,108 @@
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,35 +871,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,35 +919,36 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" s="8" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,35 +968,36 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1049,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1079,101 +1110,101 @@
         <v>14</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,35 +1224,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,35 +1272,35 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" s="8" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,35 +1320,35 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1341,9 +1372,9 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1369,7 +1400,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1430,101 +1461,101 @@
         <v>14</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,35 +1575,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,35 +1623,35 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" s="8" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,35 +1671,35 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -22,13 +22,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="0"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">批注示例文本，请注意查阅！
+&lt;color&gt;Red&lt;/color&gt;
+&lt;b&gt;abc&lt;/b&gt;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="79">
   <si>
     <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
   </si>
   <si>
     <t xml:space="preserve">整数@CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#注释示例列</t>
   </si>
   <si>
     <t xml:space="preserve">小整数@CS</t>
@@ -172,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">Custom&lt;CustomSample&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">任意文本</t>
   </si>
   <si>
     <t xml:space="preserve">示例字符k串1</t>
@@ -655,33 +687,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
+      <selection pane="bottomLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="26.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1026" min="1026" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1028" min="1027" style="2" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="28.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="26.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1026" min="18" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="1027" style="2" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1029" min="1028" style="2" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,6 +735,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -732,10 +765,10 @@
       <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -753,14 +786,15 @@
       <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
@@ -803,14 +837,15 @@
       <c r="P3" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="Q3" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
@@ -847,59 +882,65 @@
       <c r="N4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>48</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>9999999999</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>9999999999</v>
       </c>
       <c r="E5" s="1" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>3.22</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="N5" s="10" t="s">
         <v>56</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,102 +948,109 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>4200000000</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="F6" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="8" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>-5000000000</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>1111111111</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>9999.9999</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="8" t="n">
+      <c r="B7" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>64</v>
+      <c r="C7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>-5000000000</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>9999.9999</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="L7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>71</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1011,6 +1059,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1049,7 +1098,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1071,140 +1120,140 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,35 +1273,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,35 +1321,35 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6" s="8" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,35 +1369,35 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1449,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1422,140 +1471,140 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,35 +1624,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,35 +1672,35 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6" s="8" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,35 +1720,35 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="#配置说明" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="配置" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="分表配置_1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="分表配置_2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="矩阵配置" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
   <si>
     <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
   </si>
@@ -404,6 +405,9 @@
       </rPr>
       <t xml:space="preserve">Sample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DTGen=Matrix,Title=示例表,Class=MatrixSample,Matrix=short&amp;long&amp;bool</t>
   </si>
 </sst>
 </file>
@@ -689,9 +693,9 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -1763,4 +1767,132 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D25" activeCellId="0" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="5" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="1014" style="2" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1015" style="2" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="0" width="11.64"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -407,7 +407,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DTGen=Matrix,Title=示例表,Class=MatrixSample,Matrix=short&amp;long&amp;bool</t>
+    <t xml:space="preserve">DTGen=Matrix,Title=示例表,Class=MatrixSample,Matrix=short&amp;long&amp;bool,MatrixDefaultValue=true</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,6 +589,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1781,7 +1785,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1793,7 +1797,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="5" style="1" width="9.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="1014" style="2" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1015" style="2" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="12" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#配置说明" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
   <si>
     <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">整数@CS</t>
   </si>
   <si>
-    <t xml:space="preserve">#注释示例列</t>
+    <t xml:space="preserve">#行注释标志</t>
   </si>
   <si>
     <t xml:space="preserve">小整数@CS</t>
@@ -111,6 +111,9 @@
     <t xml:space="preserve">Id</t>
   </si>
   <si>
+    <t xml:space="preserve">itag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Int16Value</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
     <t xml:space="preserve">int</t>
   </si>
   <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
     <t xml:space="preserve">short</t>
   </si>
   <si>
@@ -169,9 +175,6 @@
   </si>
   <si>
     <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
   </si>
   <si>
     <t xml:space="preserve">bool</t>
@@ -278,6 +281,9 @@
     <t xml:space="preserve">xyz</t>
   </si>
   <si>
+    <t xml:space="preserve">魂牵梦萦</t>
+  </si>
+  <si>
     <t xml:space="preserve">字符串3</t>
   </si>
   <si>
@@ -334,6 +340,9 @@
     <t xml:space="preserve">aaa</t>
   </si>
   <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -430,19 +439,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -542,17 +548,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -591,7 +593,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -668,7 +670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -691,16 +693,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -713,191 +715,193 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="28.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="26.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1026" min="18" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1027" min="1027" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1029" min="1028" style="2" width="11.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="9.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="Q3" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>49</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -920,35 +924,35 @@
         <v>3.22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="H5" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="N5" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="O5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,89 +975,99 @@
         <v>1.09</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
         <v>64</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>-5000000000</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>9999.9999</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>-5000000000</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1111111111</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>9999.9999</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11" t="s">
+      <c r="N7" s="9" t="s">
         <v>73</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1075,7 @@
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1072,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1094,174 +1108,172 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1025" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1027" min="1026" style="2" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="O3" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,35 +1293,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="M5" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,35 +1341,35 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,35 +1389,35 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>77</v>
+      <c r="M7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1425,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1423,7 +1435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1445,174 +1457,172 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1025" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1027" min="1026" style="2" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="O3" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,35 +1642,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="L5" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="M5" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,35 +1690,35 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,35 +1738,35 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="L7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>77</v>
+      <c r="M7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1774,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1774,13 +1784,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1795,94 +1805,93 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="5" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="1014" style="2" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1015" style="2" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16374" style="12" width="11.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="1014" style="11" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1015" style="11" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1892,7 +1901,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -29,7 +29,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="P2" authorId="0">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
   <si>
     <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
   </si>
@@ -90,6 +90,9 @@
 备注1字符串</t>
   </si>
   <si>
+    <t xml:space="preserve">一维字符串数组</t>
+  </si>
+  <si>
     <t xml:space="preserve">三维数组</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
     <t xml:space="preserve">Array2DValue</t>
   </si>
   <si>
+    <t xml:space="preserve">ArrayStringValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Array3DValue</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
   </si>
   <si>
     <t xml:space="preserve">Array&lt;Array&lt;int&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array&lt;string&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Array&lt;Array&lt;Array&lt;int&gt;&gt;&gt;</t>
@@ -272,6 +281,37 @@
     <t xml:space="preserve">[2]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[[]]</t>
   </si>
   <si>
@@ -294,6 +334,35 @@
   </si>
   <si>
     <t xml:space="preserve">[[1,3,2],[2,3,1]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"a","b"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">[[[1,2,3]]]</t>
@@ -427,7 +496,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -473,10 +542,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF111111"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -548,7 +629,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,7 +670,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,7 +755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -693,16 +778,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -715,13 +800,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="28.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="26.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="28.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="28.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="25.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="26.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="9.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -744,6 +829,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -779,7 +865,7 @@
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -797,111 +883,120 @@
       <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
@@ -924,35 +1019,38 @@
         <v>3.22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>59</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,36 +1073,39 @@
         <v>1.09</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>9</v>
@@ -1027,41 +1128,44 @@
         <v>9999.9999</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>4</v>
@@ -1072,10 +1176,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1086,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1118,7 +1222,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1167,113 +1271,113 @@
         <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,35 +1397,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,35 +1445,35 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,35 +1493,35 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1529,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1435,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1467,7 +1571,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1516,113 +1620,113 @@
         <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,35 +1746,35 @@
         <v>3.22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,35 +1794,35 @@
         <v>1.09</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,35 +1842,35 @@
         <v>9999.9999</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1878,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1784,7 +1888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1805,13 +1909,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="5" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="1014" style="11" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1015" style="11" width="11.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="1014" style="12" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1015" style="12" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1901,7 +2005,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ChronosGames\DataTables\sandbox\ConsoleApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A063AB-C588-4801-A91B-E234706CEA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#配置说明" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="配置" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="分表配置_1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="分表配置_2" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="矩阵配置" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="#配置说明" sheetId="1" r:id="rId1"/>
+    <sheet name="行布局表示例" sheetId="2" r:id="rId2"/>
+    <sheet name="分表配置_1" sheetId="3" r:id="rId3"/>
+    <sheet name="分表配置_2" sheetId="4" r:id="rId4"/>
+    <sheet name="矩阵配置" sheetId="5" r:id="rId5"/>
+    <sheet name="列布局表示例" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -23,23 +40,21 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="0"/>
-            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">批注示例文本，请注意查阅！
+          <t>批注示例文本，请注意查阅！
 &lt;color&gt;Red&lt;/color&gt;
 &lt;b&gt;abc&lt;/b&gt;</t>
         </r>
@@ -50,191 +65,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
-  <si>
-    <t xml:space="preserve">DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整数@CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#行注释标志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小整数@CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大整数@CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无符号大整数@C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浮点数@A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字符串@CSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">布尔@CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枚举@CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数组@ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二维数组
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="101">
+  <si>
+    <t>DataTabeGenerator,Title=示例表,Class=DataTableSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
+  </si>
+  <si>
+    <t>整数@CS</t>
+  </si>
+  <si>
+    <t>#行注释标志</t>
+  </si>
+  <si>
+    <t>小整数@CS</t>
+  </si>
+  <si>
+    <t>大整数@CS</t>
+  </si>
+  <si>
+    <t>无符号大整数@C</t>
+  </si>
+  <si>
+    <t>浮点数@A</t>
+  </si>
+  <si>
+    <t>字符串@CSA</t>
+  </si>
+  <si>
+    <t>布尔@CA</t>
+  </si>
+  <si>
+    <t>枚举@CA</t>
+  </si>
+  <si>
+    <t>数组@ABC</t>
+  </si>
+  <si>
+    <t>二维数组
 使用标准JSON格式串
 备注1字符串</t>
   </si>
   <si>
-    <t xml:space="preserve">一维字符串数组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三维数组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字典@A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枚举与整形的字典</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枚举数组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSON类</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自定义类</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Int16Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Int64Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UInt64Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FloatValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BoolValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArrayValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array2DValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ArrayStringValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array3DValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MapValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MapEnumToInt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnumArray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustomJSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustomFieldType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ulong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum&lt;ConsoleApp.ColorT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array&lt;int&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array&lt;Array&lt;int&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array&lt;string&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array&lt;Array&lt;Array&lt;int&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map&lt;int, int&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map&lt;enum&lt;ColorT&gt;,int&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array&lt;enum&lt;ColorT&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSON&lt;SampleParent&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom&lt;CustomSample&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">任意文本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">示例字符k串1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[1,2]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"1":1,"2":2,"3":3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"Red":1,"Green":2,"Blue":3}</t>
+    <t>一维字符串数组</t>
+  </si>
+  <si>
+    <t>三维数组</t>
+  </si>
+  <si>
+    <t>字典@A</t>
+  </si>
+  <si>
+    <t>枚举与整形的字典</t>
+  </si>
+  <si>
+    <t>枚举数组</t>
+  </si>
+  <si>
+    <t>JSON类</t>
+  </si>
+  <si>
+    <t>自定义类</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>itag</t>
+  </si>
+  <si>
+    <t>Int16Value</t>
+  </si>
+  <si>
+    <t>Int64Value</t>
+  </si>
+  <si>
+    <t>UInt64Value</t>
+  </si>
+  <si>
+    <t>FloatValue</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BoolValue</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>ArrayValue</t>
+  </si>
+  <si>
+    <t>Array2DValue</t>
+  </si>
+  <si>
+    <t>ArrayStringValue</t>
+  </si>
+  <si>
+    <t>Array3DValue</t>
+  </si>
+  <si>
+    <t>MapValue</t>
+  </si>
+  <si>
+    <t>MapEnumToInt</t>
+  </si>
+  <si>
+    <t>EnumArray</t>
+  </si>
+  <si>
+    <t>CustomJSON</t>
+  </si>
+  <si>
+    <t>CustomFieldType</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>ulong</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>enum&lt;ConsoleApp.ColorT&gt;</t>
+  </si>
+  <si>
+    <t>Array&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>Array&lt;Array&lt;int&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Array&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>Array&lt;Array&lt;Array&lt;int&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Map&lt;int, int&gt;</t>
+  </si>
+  <si>
+    <t>map&lt;enum&lt;ColorT&gt;,int&gt;</t>
+  </si>
+  <si>
+    <t>array&lt;enum&lt;ColorT&gt;&gt;</t>
+  </si>
+  <si>
+    <t>JSON&lt;SampleParent&gt;</t>
+  </si>
+  <si>
+    <t>Custom&lt;CustomSample&gt;</t>
+  </si>
+  <si>
+    <t>任意文本</t>
+  </si>
+  <si>
+    <t>示例字符k串1</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[[1,2]]</t>
+  </si>
+  <si>
+    <t>{"1":1,"2":2,"3":3}</t>
+  </si>
+  <si>
+    <t>{"Red":1,"Green":2,"Blue":3}</t>
   </si>
   <si>
     <r>
@@ -245,7 +260,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -255,7 +270,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">"Red"</t>
+      <t>"Red"</t>
     </r>
     <r>
       <rPr>
@@ -265,20 +280,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">]</t>
+      <t>]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字符串2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2]</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>字符串2</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>[2]</t>
   </si>
   <si>
     <r>
@@ -289,7 +304,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -298,7 +313,7 @@
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">""</t>
+      <t>""</t>
     </r>
     <r>
       <rPr>
@@ -308,32 +323,32 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">]</t>
+      <t>]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[[]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魂牵梦萦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字符串3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1,2,3,4,5,6]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[1,3,2],[2,3,1]]</t>
+    <t>[[]]</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>魂牵梦萦</t>
+  </si>
+  <si>
+    <t>字符串3</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t>[[1,3,2],[2,3,1]]</t>
   </si>
   <si>
     <r>
@@ -343,7 +358,7 @@
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -352,7 +367,7 @@
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">"a","b"</t>
+      <t>"a","b"</t>
     </r>
     <r>
       <rPr>
@@ -361,17 +376,17 @@
         <rFont val="微软雅黑"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">]</t>
+      <t>]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[[[1,2,3]]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"3":9999999}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"Red":2222}</t>
+    <t>[[[1,2,3]]]</t>
+  </si>
+  <si>
+    <t>{"3":9999999}</t>
+  </si>
+  <si>
+    <t>{"Red":2222}</t>
   </si>
   <si>
     <r>
@@ -382,7 +397,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">[</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -392,7 +407,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">"Red","Blue"</t>
+      <t>"Red","Blue"</t>
     </r>
     <r>
       <rPr>
@@ -402,14 +417,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">]</t>
+      <t>]</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">aaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <r>
@@ -420,7 +435,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DataTabeGenerator,Title=示例表</t>
+      <t>DataTabeGenerator,Title=示例表</t>
     </r>
     <r>
       <rPr>
@@ -430,7 +445,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">,Child=x001</t>
+      <t>,Child=x001</t>
     </r>
     <r>
       <rPr>
@@ -440,17 +455,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">,Class=DataTableSplitSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
+      <t>,Class=DataTableSplitSample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">{"Id":"abc"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"Id":"cny","IntValue1":1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"Id":"rmb","IntValue2":2}</t>
+    <t>{"Id":"abc"}</t>
+  </si>
+  <si>
+    <t>{"Id":"cny","IntValue1":1}</t>
+  </si>
+  <si>
+    <t>{"Id":"rmb","IntValue2":2}</t>
   </si>
   <si>
     <r>
@@ -461,7 +476,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DataTabeGenerator,Title=示例表,Child=x002,Class=DataTable</t>
+      <t>DataTabeGenerator,Title=示例表,Child=x002,Class=DataTable</t>
     </r>
     <r>
       <rPr>
@@ -471,7 +486,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Split</t>
+      <t>Split</t>
     </r>
     <r>
       <rPr>
@@ -481,43 +496,78 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Sample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
+      <t>Sample,EnableTagsFilter,Index=Id,Index=Color,Index=Id&amp;Int16Value,Group=Name&amp;BoolValue,Group=Name</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DTGen=Matrix,Title=示例表,Class=MatrixSample,Matrix=short&amp;long&amp;bool,MatrixDefaultValue=true</t>
+    <t>DTGen=Matrix,Title=示例表,Class=MatrixSample,Matrix=short&amp;long&amp;bool,MatrixDefaultValue=true</t>
+  </si>
+  <si>
+    <t>、</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTGen=Column,Title=ColumnTable示例表,Class=ColumnTableSample</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden Sword</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron Sword</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel Sword</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -559,8 +609,34 @@
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,16 +655,28 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF666666"/>
       </left>
@@ -603,94 +691,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -749,28 +834,356 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
   </headerFooter>
@@ -778,399 +1191,395 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="28.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="28.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="26.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="9.57"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="16.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="28.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="25.109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26.44140625" style="2" customWidth="1"/>
+    <col min="19" max="1025" width="9.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2">
         <v>9999999999</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>9999999999</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2">
         <v>3.22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="H5" s="8" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2">
         <v>4200000000</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10" t="s">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2">
         <v>-5000000000</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2">
         <v>1111111111</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>9999.9999</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2">
+        <v>9999.9999000000007</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="H7" s="8" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10" t="s">
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1178,349 +1587,341 @@
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.57"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="16.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" style="2" customWidth="1"/>
+    <col min="16" max="1024" width="9.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>9999999999</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2">
         <v>9999999999</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>3.22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G5" s="8" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>4200000000</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>-5000000000</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2">
         <v>1111111111</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>9999.9999</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="2">
+        <v>9999.9999000000007</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="7" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G7" s="8" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1528,348 +1929,341 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="28.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="9.57"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="16.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" style="2" customWidth="1"/>
+    <col min="16" max="1024" width="9.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="44.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>9999999999</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2">
         <v>9999999999</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2">
         <v>3.22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G5" s="8" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>4200000000</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>-5000000000</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2">
         <v>1111111111</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>9999.9999</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="2">
+        <v>9999.9999000000007</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="7" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="G7" s="8" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1877,126 +2271,118 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMB6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1013" min="5" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1014" min="1014" style="12" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1015" style="12" width="11.64"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="2" customWidth="1"/>
+    <col min="5" max="1013" width="9.5546875" style="2"/>
+    <col min="1014" max="1014" width="9.5546875" style="13"/>
+    <col min="1015" max="1016" width="11.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="n">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="B3" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C3" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="D3" s="8" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="B4" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C4" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="D4" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="B5" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C5" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="D5" s="8" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="B6" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C6" s="8" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="D6" s="8" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2004,12 +2390,113 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454391F0-31EE-400B-BC0B-588C6C19946D}">
+  <dimension ref="A1:AMB30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="1013" width="9.5546875" style="2"/>
+    <col min="1014" max="1014" width="9.5546875" style="13"/>
+    <col min="1015" max="1016" width="11.6640625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1002</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sandbox/ConsoleApp/示例表.xlsx
+++ b/sandbox/ConsoleApp/示例表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ChronosGames\DataTables\sandbox\ConsoleApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A063AB-C588-4801-A91B-E234706CEA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBDE65A-8A8A-4C17-AFCB-2AEB06A4D1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,10 +511,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>道具ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -552,6 +548,10 @@
   </si>
   <si>
     <t>Rarity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,9 +715,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,15 +746,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,6 +756,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,192 +1216,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1430,7 +1427,7 @@
       <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="8" t="b">
+      <c r="H5" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -1449,10 +1446,10 @@
       <c r="M5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -1484,7 +1481,7 @@
       <c r="G6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="8" t="b">
+      <c r="H6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1509,11 +1506,11 @@
       <c r="O6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11" t="s">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1521,7 +1518,7 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="2">
@@ -1539,7 +1536,7 @@
       <c r="G7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="8" t="b">
+      <c r="H7" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -1552,23 +1549,23 @@
       <c r="K7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>75</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11" t="s">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1622,162 +1619,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1800,7 +1797,7 @@
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="8" t="b">
+      <c r="G5" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -1816,10 +1813,10 @@
       <c r="K5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>60</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -1848,7 +1845,7 @@
       <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="8" t="b">
+      <c r="G6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -1870,10 +1867,10 @@
       <c r="M6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1896,7 +1893,7 @@
       <c r="F7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="8" t="b">
+      <c r="G7" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -1912,16 +1909,16 @@
       <c r="K7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1964,162 +1961,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2142,7 +2139,7 @@
       <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="8" t="b">
+      <c r="G5" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -2158,10 +2155,10 @@
       <c r="K5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>60</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -2190,7 +2187,7 @@
       <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="8" t="b">
+      <c r="G6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
@@ -2212,10 +2209,10 @@
       <c r="M6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2238,7 +2235,7 @@
       <c r="F7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="8" t="b">
+      <c r="G7" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -2254,16 +2251,16 @@
       <c r="K7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2295,93 +2292,93 @@
     <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" style="2" customWidth="1"/>
     <col min="5" max="1013" width="9.5546875" style="2"/>
-    <col min="1014" max="1014" width="9.5546875" style="13"/>
-    <col min="1015" max="1016" width="11.6640625" style="13" customWidth="1"/>
+    <col min="1014" max="1014" width="9.5546875" style="12"/>
+    <col min="1015" max="1016" width="11.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="b">
+      <c r="B3" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="b">
+      <c r="C3" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="b">
+      <c r="D3" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="b">
+      <c r="B4" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="b">
+      <c r="C4" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="b">
+      <c r="B5" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="b">
+      <c r="C5" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="b">
+      <c r="D5" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="b">
+      <c r="B6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="b">
+      <c r="C6" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="b">
+      <c r="D6" s="7" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -2401,7 +2398,7 @@
   <dimension ref="A1:AMB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2409,33 +2406,33 @@
     <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="1013" width="9.5546875" style="2"/>
-    <col min="1014" max="1014" width="9.5546875" style="13"/>
-    <col min="1015" max="1016" width="11.6640625" style="13" customWidth="1"/>
+    <col min="1014" max="1014" width="9.5546875" style="12"/>
+    <col min="1015" max="1016" width="11.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
@@ -2448,34 +2445,34 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>92</v>
+      <c r="C4" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
